--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_16-35.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_16-35.xlsx
@@ -164,9 +164,6 @@
     <t>0:4</t>
   </si>
   <si>
-    <t>OPLEX N PLUS 10 SUPP.</t>
-  </si>
-  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>VENTOCOUGH WITHOUT SUGAR SYRUP 125ML</t>
   </si>
   <si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>7778:0</t>
-  </si>
-  <si>
-    <t>XILONE 5MG/5ML SYRUP 100ML</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -1529,17 +1526,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1555,17 +1552,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>240</v>
+        <v>8</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1573,7 +1570,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1581,17 +1578,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1607,17 +1604,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1633,17 +1630,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>75</v>
+        <v>56.399999999999999</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1651,7 +1648,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1659,13 +1656,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>56.399999999999999</v>
+        <v>23</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1685,17 +1682,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>23</v>
+        <v>65.75</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1717,7 +1714,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>65.75</v>
+        <v>59</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1737,17 +1734,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1763,13 +1760,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1781,7 +1778,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1795,7 +1792,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -1807,7 +1804,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1815,13 +1812,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1833,7 +1830,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1841,13 +1838,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>35</v>
+        <v>2.5</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1859,7 +1856,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1867,17 +1864,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>2.5</v>
+        <v>16</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1885,7 +1882,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1893,13 +1890,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1911,7 +1908,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1919,17 +1916,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1937,7 +1934,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1945,13 +1942,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -1963,7 +1960,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1971,13 +1968,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -1989,7 +1986,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1997,13 +1994,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2015,7 +2012,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2023,13 +2020,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>20</v>
+        <v>19.199999999999999</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2041,7 +2038,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2055,7 +2052,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2067,7 +2064,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2075,103 +2072,51 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>19.199999999999999</v>
+        <v>30</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="52" ht="25.5" customHeight="1">
-      <c r="A52" s="6">
-        <v>49</v>
-      </c>
-      <c t="s" r="B52" s="7">
-        <v>82</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c t="s" r="H52" s="8">
-        <v>20</v>
-      </c>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9">
-        <v>20</v>
-      </c>
-      <c r="M52" s="9"/>
-      <c t="s" r="N52" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" ht="25.5" customHeight="1">
-      <c r="A53" s="6">
-        <v>50</v>
-      </c>
-      <c t="s" r="B53" s="7">
+    <row r="52" ht="26.25" customHeight="1">
+      <c r="K52" s="10">
+        <v>2459.71</v>
+      </c>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="11">
         <v>83</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c t="s" r="H53" s="8">
-        <v>36</v>
-      </c>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9">
-        <v>30</v>
-      </c>
-      <c r="M53" s="9"/>
-      <c t="s" r="N53" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="K54" s="10">
-        <v>2527.71</v>
-      </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="11">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c t="s" r="F53" s="12">
         <v>84</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c t="s" r="F55" s="12">
+      <c r="G53" s="12"/>
+      <c r="H53" s="13"/>
+      <c t="s" r="I53" s="14">
         <v>85</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="13"/>
-      <c t="s" r="I55" s="14">
-        <v>86</v>
-      </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="155">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2323,16 +2268,10 @@
     <mergeCell ref="B51:G51"/>
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="H53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="I53:N53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
